--- a/SUMMARY SHEETS/SC.Levels updated.xlsx
+++ b/SUMMARY SHEETS/SC.Levels updated.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12CA748-63C7-4544-B57B-6F3C6157FCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D24F0-4ECB-1545-B5C0-063643ED55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="520" windowWidth="16980" windowHeight="15360" xr2:uid="{29420975-DDCC-2348-8699-9D540F8FBA5A}"/>
+    <workbookView xWindow="2840" yWindow="520" windowWidth="23680" windowHeight="15340" xr2:uid="{29420975-DDCC-2348-8699-9D540F8FBA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
   <si>
     <t>Site</t>
   </si>
@@ -74,9 +74,6 @@
     <t>YSI</t>
   </si>
   <si>
-    <t xml:space="preserve">SC </t>
-  </si>
-  <si>
     <t>Sensor monthly average from Caleigh</t>
   </si>
   <si>
@@ -84,19 +81,105 @@
   </si>
   <si>
     <t>Yearly average</t>
+  </si>
+  <si>
+    <t>Specific conductivity</t>
+  </si>
+  <si>
+    <t>*17.2</t>
+  </si>
+  <si>
+    <t>*21.6</t>
+  </si>
+  <si>
+    <t>*45.2</t>
+  </si>
+  <si>
+    <t>*62.2</t>
+  </si>
+  <si>
+    <t>*44</t>
+  </si>
+  <si>
+    <t>*50.7</t>
+  </si>
+  <si>
+    <t>*302</t>
+  </si>
+  <si>
+    <t>*361.6</t>
+  </si>
+  <si>
+    <t>*1339</t>
+  </si>
+  <si>
+    <t>*942</t>
+  </si>
+  <si>
+    <t>*716</t>
+  </si>
+  <si>
+    <t>*1088</t>
+  </si>
+  <si>
+    <t>*1271</t>
+  </si>
+  <si>
+    <t>*1367</t>
+  </si>
+  <si>
+    <t>*1044</t>
+  </si>
+  <si>
+    <t>*470.2</t>
+  </si>
+  <si>
+    <t>*501</t>
+  </si>
+  <si>
+    <t>*341.8</t>
+  </si>
+  <si>
+    <t>*357.8</t>
+  </si>
+  <si>
+    <t>*319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,13 +198,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,1022 +559,1024 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="C69" sqref="A1:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>45170</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>25.04486</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f>AVERAGE(C2:C9)</f>
-        <v>16.396283812500002</v>
+        <v>15.395045083333335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>45200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>15.12466</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>45231</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>7.2588889999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>45261</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>5.82836</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>45292</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>12.702151000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>45323</v>
       </c>
-      <c r="C7">
-        <v>17.2</v>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>45413</v>
       </c>
-      <c r="C8">
-        <v>21.6</v>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>45505</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>26.411350500000001</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>45170</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>67.651319000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f>AVERAGE(C10:C17)</f>
-        <v>39.950417874999999</v>
+        <v>35.367223833333334</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>45200</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>46.712634000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>45231</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>7.2588889999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>45261</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>5.82836</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>45292</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>12.702151000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>45323</v>
       </c>
-      <c r="C15">
-        <v>45.2</v>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>45413</v>
       </c>
-      <c r="C16">
-        <v>62.2</v>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>45505</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>72.049989999999994</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>45170</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>90.280280000000005</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <f>AVERAGE(C18:C25)</f>
-        <v>76.632253750000004</v>
+        <v>86.393005000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>45200</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>110.94079000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>45231</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>107.26799</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>45261</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>50.949330000000003</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>45292</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>37.330240000000003</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>45323</v>
       </c>
-      <c r="C23">
-        <v>44</v>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>45413</v>
       </c>
-      <c r="C24">
-        <v>50.7</v>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>45505</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>121.5894</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>45170</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>463.43990000000002</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <f>AVERAGE(C26:C33)</f>
-        <v>349.77087500000005</v>
+        <v>355.76116666666667</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>45200</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>431.24130000000002</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>45231</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>374.25349999999997</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>45261</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>293.34660000000002</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>45292</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>175.08529999999999</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>45323</v>
       </c>
-      <c r="C31">
-        <v>302</v>
+      <c r="C31" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>45413</v>
       </c>
-      <c r="C32">
-        <v>361.6</v>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>45505</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>397.2004</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>45170</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>283.06279999999998</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <f>AVERAGE(C34:C41)</f>
-        <v>292.60251249999999</v>
+        <v>277.33668333333333</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>45200</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>363.26010000000002</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>45231</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>298.18970000000002</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>45261</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>232.13249999999999</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>45292</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>186.7869</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>45323</v>
       </c>
-      <c r="C39">
-        <v>319</v>
+      <c r="C39" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>45413</v>
       </c>
-      <c r="C40">
-        <v>357.8</v>
+      <c r="C40" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>45505</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>300.5881</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>45170</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>586.26660000000004</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <f>AVERAGE(C42:C49)</f>
-        <v>446.72458749999998</v>
+        <v>452.15933999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>45200</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>593.51869999999997</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>45231</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>519.12189999999998</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>45261</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>359.71420000000001</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>45292</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>202.17529999999999</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>45323</v>
       </c>
-      <c r="C47">
-        <v>341.8</v>
+      <c r="C47" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>45413</v>
       </c>
-      <c r="C48">
-        <v>501</v>
+      <c r="C48" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>45505</v>
       </c>
-      <c r="C49">
-        <v>470.2</v>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>45170</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>1489.9526000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <f>AVERAGE(C50:C57)</f>
-        <v>1184.808575</v>
+        <v>1177.9114333333332</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="4">
         <v>45200</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>1357.87</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="4">
         <v>45231</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>1131.0047999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="4">
         <v>45261</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>931.85109999999997</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="4">
         <v>45292</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>713.41210000000001</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="4">
         <v>45323</v>
       </c>
-      <c r="C55">
-        <v>1044</v>
+      <c r="C55" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="4">
         <v>45413</v>
       </c>
-      <c r="C56">
-        <v>1367</v>
+      <c r="C56" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="4">
         <v>45505</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>1443.3779999999999</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="4">
         <v>45170</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>1192.6242</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <f>AVERAGE(C58:C65)</f>
-        <v>1082.6287875</v>
+        <v>1050.3383833333332</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="4">
         <v>45200</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>1317.6184000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="4">
         <v>45231</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>1037.5949000000001</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="4">
         <v>45261</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>779.61289999999997</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="4">
         <v>45292</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>186.7869</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4">
         <v>45323</v>
       </c>
-      <c r="C63">
-        <v>1088</v>
+      <c r="C63" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="4">
         <v>45413</v>
       </c>
-      <c r="C64">
-        <v>1271</v>
+      <c r="C64" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="4">
         <v>45505</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>1787.7929999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="4">
         <v>45200</v>
       </c>
-      <c r="C66">
-        <v>1339</v>
+      <c r="C66" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66">
         <f>AVERAGE(C66:C69)</f>
-        <v>1048.9135000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+        <v>1198.654</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="4">
         <v>45323</v>
       </c>
-      <c r="C67">
-        <v>942</v>
+      <c r="C67" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <v>45413</v>
       </c>
-      <c r="C68">
-        <v>716</v>
+      <c r="C68" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="4">
         <v>45505</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>1198.654</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/SUMMARY SHEETS/SC.Levels updated.xlsx
+++ b/SUMMARY SHEETS/SC.Levels updated.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D24F0-4ECB-1545-B5C0-063643ED55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6E8C2-28D3-D44C-88E2-94B9EFB147C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="520" windowWidth="23680" windowHeight="15340" xr2:uid="{29420975-DDCC-2348-8699-9D540F8FBA5A}"/>
+    <workbookView xWindow="700" yWindow="520" windowWidth="26080" windowHeight="15340" xr2:uid="{29420975-DDCC-2348-8699-9D540F8FBA5A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="totals" sheetId="1" r:id="rId1"/>
+    <sheet name="Cat mean, median, min, max" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cat mean, median, min, max'!$C$2:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
   <si>
     <t>Site</t>
   </si>
@@ -86,64 +90,40 @@
     <t>Specific conductivity</t>
   </si>
   <si>
-    <t>*17.2</t>
-  </si>
-  <si>
-    <t>*21.6</t>
-  </si>
-  <si>
-    <t>*45.2</t>
-  </si>
-  <si>
-    <t>*62.2</t>
-  </si>
-  <si>
-    <t>*44</t>
-  </si>
-  <si>
-    <t>*50.7</t>
-  </si>
-  <si>
-    <t>*302</t>
-  </si>
-  <si>
-    <t>*361.6</t>
-  </si>
-  <si>
-    <t>*1339</t>
-  </si>
-  <si>
-    <t>*942</t>
-  </si>
-  <si>
-    <t>*716</t>
-  </si>
-  <si>
-    <t>*1088</t>
-  </si>
-  <si>
-    <t>*1271</t>
-  </si>
-  <si>
-    <t>*1367</t>
-  </si>
-  <si>
-    <t>*1044</t>
-  </si>
-  <si>
-    <t>*470.2</t>
-  </si>
-  <si>
-    <t>*501</t>
-  </si>
-  <si>
-    <t>*341.8</t>
-  </si>
-  <si>
-    <t>*357.8</t>
-  </si>
-  <si>
-    <t>*319</t>
+    <t>SC Category</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -151,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -213,14 +193,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89C5CD4-F3D1-864D-8BBB-6DEEE5568FB5}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="A1:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,7 +588,7 @@
       </c>
       <c r="E2">
         <f>AVERAGE(C2:C9)</f>
-        <v>15.395045083333335</v>
+        <v>17.969348812499998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -627,7 +613,7 @@
         <v>45231</v>
       </c>
       <c r="C4" s="5">
-        <v>7.2588889999999999</v>
+        <v>19.182500000000001</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -641,7 +627,7 @@
         <v>45261</v>
       </c>
       <c r="C5" s="5">
-        <v>5.82836</v>
+        <v>13.029909999999999</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -655,35 +641,35 @@
         <v>45292</v>
       </c>
       <c r="C6" s="5">
-        <v>12.702151000000001</v>
+        <v>11.1099</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>45323</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
+      <c r="C7" s="5">
+        <v>12.251609999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4">
         <v>45413</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
+      <c r="C8" s="5">
+        <v>21.6</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -718,7 +704,7 @@
       </c>
       <c r="E10">
         <f>AVERAGE(C10:C17)</f>
-        <v>35.367223833333334</v>
+        <v>39.950417874999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -777,29 +763,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4">
         <v>45323</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
+      <c r="C15" s="5">
+        <v>45.2</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="4">
         <v>45413</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
+      <c r="C16" s="5">
+        <v>62.2</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -834,7 +820,7 @@
       </c>
       <c r="E18">
         <f>AVERAGE(C18:C25)</f>
-        <v>86.393005000000002</v>
+        <v>76.632253750000004</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -893,29 +879,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4">
         <v>45323</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
+      <c r="C23" s="5">
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="4">
         <v>45413</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
+      <c r="C24" s="5">
+        <v>50.7</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -950,7 +936,7 @@
       </c>
       <c r="E26">
         <f>AVERAGE(C26:C33)</f>
-        <v>355.76116666666667</v>
+        <v>327.78387500000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1009,29 +995,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="4">
         <v>45323</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>22</v>
+      <c r="C31" s="5">
+        <v>126.104</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="4">
         <v>45413</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
+      <c r="C32" s="5">
+        <v>361.6</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1066,7 +1052,7 @@
       </c>
       <c r="E34">
         <f>AVERAGE(C34:C41)</f>
-        <v>277.33668333333333</v>
+        <v>292.60251249999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1125,29 +1111,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="4">
         <v>45323</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>35</v>
+      <c r="C39" s="5">
+        <v>319</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="4">
         <v>45413</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>34</v>
+      <c r="C40" s="5">
+        <v>357.8</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -1182,7 +1168,7 @@
       </c>
       <c r="E42">
         <f>AVERAGE(C42:C49)</f>
-        <v>452.15933999999999</v>
+        <v>446.72458749999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1241,43 +1227,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="4">
         <v>45323</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>33</v>
+      <c r="C47" s="5">
+        <v>341.8</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="4">
         <v>45413</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>32</v>
+      <c r="C48" s="5">
+        <v>501</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="4">
         <v>45505</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>31</v>
+      <c r="C49" s="5">
+        <v>470.2</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -1298,7 +1284,7 @@
       </c>
       <c r="E50">
         <f>AVERAGE(C50:C57)</f>
-        <v>1177.9114333333332</v>
+        <v>1184.808575</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,29 +1343,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="4">
         <v>45323</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>30</v>
+      <c r="C55" s="5">
+        <v>1044</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="4">
         <v>45413</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>29</v>
+      <c r="C56" s="5">
+        <v>1367</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -1414,7 +1400,7 @@
       </c>
       <c r="E58">
         <f>AVERAGE(C58:C65)</f>
-        <v>1050.3383833333332</v>
+        <v>1132.5657125</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1467,35 +1453,35 @@
         <v>45292</v>
       </c>
       <c r="C62" s="5">
-        <v>186.7869</v>
+        <v>586.28229999999996</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="4">
         <v>45323</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>27</v>
+      <c r="C63" s="5">
+        <v>1088</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="4">
         <v>45413</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>28</v>
+      <c r="C64" s="5">
+        <v>1271</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -1515,47 +1501,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="4">
         <v>45200</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>24</v>
+      <c r="C66" s="5">
+        <v>1339</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="6">
         <f>AVERAGE(C66:C69)</f>
-        <v>1198.654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>1048.9135000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="4">
         <v>45323</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>25</v>
+      <c r="C67" s="5">
+        <v>942</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="4">
         <v>45413</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>26</v>
+      <c r="C68" s="5">
+        <v>716</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -1579,4 +1565,846 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11BB58C-B028-6149-9FA6-B44729F1E60A}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45261</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.82836</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>5.8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45323</v>
+      </c>
+      <c r="I2" s="5">
+        <v>126.104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>175.1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="O2" s="5">
+        <v>586.28229999999996</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>586.28229999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45231</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.2588889999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>121.6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I3" s="5">
+        <v>175.08529999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>593.5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4">
+        <v>45292</v>
+      </c>
+      <c r="O3" s="5">
+        <v>713.41210000000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1787.7929999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45292</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11.1099</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6">
+        <f xml:space="preserve"> AVERAGE(C2:C25)</f>
+        <v>44.850673479166666</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I4" s="5">
+        <v>186.7869</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6">
+        <f>AVERAGE(I2:I25)</f>
+        <v>355.70365833333335</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4">
+        <v>45413</v>
+      </c>
+      <c r="O4" s="5">
+        <v>716</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>AVERAGE(O2:O21)</f>
+        <v>1136.7324150000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45323</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12.251609999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6">
+        <f>MEDIAN(C2:C25)</f>
+        <v>40.665120000000002</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45292</v>
+      </c>
+      <c r="I5" s="5">
+        <v>202.17529999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6">
+        <f>MEDIAN(I2:I25)</f>
+        <v>358.75710000000004</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4">
+        <v>45261</v>
+      </c>
+      <c r="O5" s="5">
+        <v>779.61289999999997</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>MEDIAN(O2:O21)</f>
+        <v>1161.8145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45292</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12.702151000000001</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I6" s="5">
+        <v>232.13249999999999</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="4">
+        <v>45261</v>
+      </c>
+      <c r="O6" s="5">
+        <v>931.85109999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45261</v>
+      </c>
+      <c r="C7" s="5">
+        <v>13.029909999999999</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45170</v>
+      </c>
+      <c r="I7" s="5">
+        <v>283.06279999999998</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
+        <v>45323</v>
+      </c>
+      <c r="O7" s="5">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15.12466</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I8" s="5">
+        <v>293.34660000000002</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4">
+        <v>45231</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1037.5949000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45231</v>
+      </c>
+      <c r="C9" s="5">
+        <v>19.182500000000001</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45231</v>
+      </c>
+      <c r="I9" s="5">
+        <v>298.18970000000002</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4">
+        <v>45323</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45413</v>
+      </c>
+      <c r="C10" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45505</v>
+      </c>
+      <c r="I10" s="5">
+        <v>300.5881</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <v>45323</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45170</v>
+      </c>
+      <c r="C11" s="5">
+        <v>25.04486</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45323</v>
+      </c>
+      <c r="I11" s="5">
+        <v>319</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="4">
+        <v>45231</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1131.0047999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45505</v>
+      </c>
+      <c r="C12" s="5">
+        <v>26.411350500000001</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45323</v>
+      </c>
+      <c r="I12" s="5">
+        <v>341.8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4">
+        <v>45170</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1192.6242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45292</v>
+      </c>
+      <c r="C13" s="5">
+        <v>37.330240000000003</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45413</v>
+      </c>
+      <c r="I13" s="5">
+        <v>357.8</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="4">
+        <v>45505</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1198.654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45323</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I14" s="5">
+        <v>359.71420000000001</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4">
+        <v>45413</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45323</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45.2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45413</v>
+      </c>
+      <c r="I15" s="5">
+        <v>361.6</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <v>45200</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1317.6184000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C16" s="5">
+        <v>46.712634000000001</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45200</v>
+      </c>
+      <c r="I16" s="5">
+        <v>363.26010000000002</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="4">
+        <v>45200</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45413</v>
+      </c>
+      <c r="C17" s="5">
+        <v>50.7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45231</v>
+      </c>
+      <c r="I17" s="5">
+        <v>374.25349999999997</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4">
+        <v>45200</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1357.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45261</v>
+      </c>
+      <c r="C18" s="5">
+        <v>50.949330000000003</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>45505</v>
+      </c>
+      <c r="I18" s="5">
+        <v>397.2004</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="4">
+        <v>45413</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45413</v>
+      </c>
+      <c r="C19" s="5">
+        <v>62.2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>45200</v>
+      </c>
+      <c r="I19" s="5">
+        <v>431.24130000000002</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="4">
+        <v>45505</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1443.3779999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45170</v>
+      </c>
+      <c r="C20" s="5">
+        <v>67.651319000000001</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>45170</v>
+      </c>
+      <c r="I20" s="5">
+        <v>463.43990000000002</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="4">
+        <v>45170</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1489.9526000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45505</v>
+      </c>
+      <c r="C21" s="5">
+        <v>72.049989999999994</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45505</v>
+      </c>
+      <c r="I21" s="5">
+        <v>470.2</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="4">
+        <v>45505</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1787.7929999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45170</v>
+      </c>
+      <c r="C22" s="5">
+        <v>90.280280000000005</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45413</v>
+      </c>
+      <c r="I22" s="5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45231</v>
+      </c>
+      <c r="C23" s="5">
+        <v>107.26799</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4">
+        <v>45231</v>
+      </c>
+      <c r="I23" s="5">
+        <v>519.12189999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C24" s="5">
+        <v>110.94079000000001</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4">
+        <v>45170</v>
+      </c>
+      <c r="I24" s="5">
+        <v>586.26660000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45505</v>
+      </c>
+      <c r="C25" s="5">
+        <v>121.5894</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45200</v>
+      </c>
+      <c r="I25" s="5">
+        <v>593.51869999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="D30" s="9">
+        <v>175.1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>586.28229999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="9">
+        <v>121.6</v>
+      </c>
+      <c r="D31" s="9">
+        <v>593.5</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1787.7929999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="9">
+        <v>44.850673479166666</v>
+      </c>
+      <c r="D32" s="9">
+        <v>355.70365833333335</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1136.7324150000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="9">
+        <v>40.665120000000002</v>
+      </c>
+      <c r="D33" s="9">
+        <v>358.75710000000004</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1161.8145</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:C25" xr:uid="{B11BB58C-B028-6149-9FA6-B44729F1E60A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:O21">
+    <sortCondition ref="O2:O21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>